--- a/biology/Botanique/Metascolioneidaceae/Metascolioneidaceae.xlsx
+++ b/biology/Botanique/Metascolioneidaceae/Metascolioneidaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Metascolioneidaceae sont une famille d'algues de l'embranchement des Bacillariophyta (Diatomées), de la classe des Bacillariophyceae et de l’ordre des Naviculales.
 </t>
@@ -511,10 +523,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Metascolioneis, composé du préfixe grec μετα / meta, « après ; à la suite de », et scolioneis par allusion au genre Scolioneis de D.G.Mann, 1990, lui-même étant un homonyme postérieur, et illégitime, du Scolioneis de F.Meister, 1919. En 2016 Blanco et Wetzel ont en effet créé de nouveaux noms de genres pour  remplacer d'anciens noms illégitimes[1].
-Par ailleurs, Scolioneis est  dérivé du grec σκολιοσ / skolios, « oblique, tortueux », et νεισ / neis, « petit bateau »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Metascolioneis, composé du préfixe grec μετα / meta, « après ; à la suite de », et scolioneis par allusion au genre Scolioneis de D.G.Mann, 1990, lui-même étant un homonyme postérieur, et illégitime, du Scolioneis de F.Meister, 1919. En 2016 Blanco et Wetzel ont en effet créé de nouveaux noms de genres pour  remplacer d'anciens noms illégitimes.
+Par ailleurs, Scolioneis est  dérivé du grec σκολιοσ / skolios, « oblique, tortueux », et νεισ / neis, « petit bateau ».
 </t>
         </is>
       </c>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,6 +586,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -595,9 +613,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (18 mai 2022)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (18 mai 2022) :
 Metascolioneis S.Blanco &amp; C.E.Wetzel, 2016   genre type
 Scoliolyra C.P.Chen, Y.H.Gao, Z.Wang &amp; J.W.Zhang, 2020
 Scolioneis D.G.Mann, 1990 nom. illeg.</t>
@@ -628,9 +648,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Metascolioneidaceae Blanco &amp; Wetzel, 2016[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Metascolioneidaceae Blanco &amp; Wetzel, 2016.
 </t>
         </is>
       </c>
@@ -659,7 +681,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Blanco, S. &amp; Wetzel, C.E. (2016). Replacement names for botanical taxa involving algal genera. Phytotaxa 266(3):  195-205.</t>
         </is>
